--- a/target/classes/api_v7.xlsx
+++ b/target/classes/api_v7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="apiInfo" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,15 +130,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"__getUserName()","password":"__md5(123456a)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"__getUserName()","password":"__md5(yh601933)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"__getUserName()","password":"__md5(112222)"}</t>
+    <t>{"username":"${username}","password":"__md5(112222)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"${username}","password":"123456a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"${username}","password":"yh601933)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skucode":"3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hc-t1.yonghuivip.com/app/api/sms-config-center/ordertypeconfig/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -569,7 +585,7 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -583,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -597,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -611,81 +627,91 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="52" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="52" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -693,16 +719,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -710,16 +736,16 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -727,11 +753,22 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
